--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -529,6 +529,9 @@
       <c r="C11" t="str">
         <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -590,7 +593,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>033215634532191240</v>
+        <v>033215634532191243</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,12 +530,98 @@
         <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F11" t="str">
-        <v>3</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>5</v>
+      </c>
+      <c r="C12" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>6</v>
+      </c>
+      <c r="C14" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>7</v>
+      </c>
+      <c r="C19" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -593,7 +679,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>033215634532191243</v>
+        <v>0332156345321912435348351026202030650</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -618,6 +618,9 @@
       <c r="C21" t="str">
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -679,7 +682,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0332156345321912435348351026202030650</v>
+        <v>03321563453219124353483510262020306540</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -622,9 +622,89 @@
         <v>40</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8</v>
+      </c>
+      <c r="C25" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -682,7 +762,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03321563453219124353483510262020306540</v>
+        <v>0332156345321912435348351026202030654010625221352055130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -701,6 +701,9 @@
       <c r="C31" t="str">
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -762,7 +765,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0332156345321912435348351026202030654010625221352055130</v>
+        <v>03321563453219124353483510262020306540106252213520551310</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,9 +705,90 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>9</v>
+      </c>
+      <c r="C32" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>10</v>
+      </c>
+      <c r="C38" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F38" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>11</v>
+      </c>
+      <c r="C39" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -765,7 +846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03321563453219124353483510262020306540106252213520551310</v>
+        <v>033215634532191243534835102620203065401062522135205513102035135251550000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -775,6 +775,9 @@
       <c r="C39" t="str">
         <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
+      <c r="F39" t="str">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -846,7 +849,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>033215634532191243534835102620203065401062522135205513102035135251550000</v>
+        <v>033215634532191243534835102620203065401062522135205513102035135251550600</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -776,7 +776,7 @@
         <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
       <c r="F39" t="str">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
@@ -849,7 +849,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>033215634532191243534835102620203065401062522135205513102035135251550600</v>
+        <v>0332156345321912435348351026202030654010625221352055131020351352515506000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -783,6 +783,9 @@
       <c r="A40" t="str">
         <v>12</v>
       </c>
+      <c r="C40" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -786,6 +786,9 @@
       <c r="C40" t="str">
         <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
+      <c r="F40" t="str">
+        <v>60</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -852,7 +855,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0332156345321912435348351026202030654010625221352055131020351352515506000</v>
+        <v>03321563453219124353483510262020306540106252213520551310203513525155060600</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -794,6 +794,9 @@
       <c r="A41" t="str">
         <v>13</v>
       </c>
+      <c r="C41" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -797,6 +797,9 @@
       <c r="C41" t="str">
         <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
+      <c r="F41" t="str">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -858,7 +861,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03321563453219124353483510262020306540106252213520551310203513525155060600</v>
+        <v>033215634532191243534835102620203065401062522135205513102035135251550606060</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -801,9 +801,63 @@
         <v>60</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>14</v>
+      </c>
+      <c r="C42" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F42" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>15</v>
+      </c>
+      <c r="C43" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L47"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -861,7 +915,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>033215634532191243534835102620203065401062522135205513102035135251550606060</v>
+        <v>03321563453219124353483510262020306540106252213520551310203513525155060606060188191011</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-22.xlsx
@@ -917,6 +917,9 @@
       <c r="G2" t="str">
         <v>03321563453219124353483510262020306540106252213520551310203513525155060606060188191011</v>
       </c>
+      <c r="H2" t="str">
+        <v>USD</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
